--- a/part02/save/melon.xlsx
+++ b/part02/save/melon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="167">
   <si>
     <t>서비스</t>
   </si>
@@ -34,55 +34,70 @@
     <t>그때 그 순간 그대로 (그그그)</t>
   </si>
   <si>
+    <t>Attention</t>
+  </si>
+  <si>
     <t>보고싶었어</t>
   </si>
   <si>
     <t>LOVE DIVE</t>
   </si>
   <si>
+    <t>SNEAKERS</t>
+  </si>
+  <si>
+    <t>Hype boy</t>
+  </si>
+  <si>
     <t>POP!</t>
   </si>
   <si>
+    <t>사랑은 늘 도망가</t>
+  </si>
+  <si>
+    <t>TOMBOY</t>
+  </si>
+  <si>
     <t>That That (prod. &amp; feat. SUGA of BTS)</t>
   </si>
   <si>
-    <t>사랑은 늘 도망가</t>
-  </si>
-  <si>
-    <t>TOMBOY</t>
-  </si>
-  <si>
-    <t>SNEAKERS</t>
+    <t>우리들의 블루스</t>
   </si>
   <si>
     <t>정이라고 하자 (Feat. 10CM)</t>
   </si>
   <si>
-    <t>우리들의 블루스</t>
+    <t>그라데이션</t>
+  </si>
+  <si>
+    <t>나의 X에게</t>
+  </si>
+  <si>
+    <t>사랑인가 봐</t>
   </si>
   <si>
     <t>Girls</t>
   </si>
   <si>
-    <t>나의 X에게</t>
-  </si>
-  <si>
-    <t>사랑인가 봐</t>
-  </si>
-  <si>
     <t>다시 만날 수 있을까</t>
   </si>
   <si>
-    <t>그라데이션</t>
-  </si>
-  <si>
-    <t>Attention</t>
+    <t>FOREVER 1</t>
+  </si>
+  <si>
+    <t>도깨비불 (Illusion)</t>
+  </si>
+  <si>
+    <t>Love story</t>
   </si>
   <si>
     <t>무지개</t>
   </si>
   <si>
-    <t>Love story</t>
+    <t>내가 아니라도</t>
+  </si>
+  <si>
+    <t>FEARLESS</t>
   </si>
   <si>
     <t>이제 나만 믿어요</t>
@@ -91,127 +106,139 @@
     <t>아버지</t>
   </si>
   <si>
+    <t>LOVE me</t>
+  </si>
+  <si>
+    <t>손이 참 곱던 그대</t>
+  </si>
+  <si>
+    <t>A bientot</t>
+  </si>
+  <si>
+    <t>봄여름가을겨울 (Still Life)</t>
+  </si>
+  <si>
+    <t>사랑해 진짜</t>
+  </si>
+  <si>
+    <t>인생찬가</t>
+  </si>
+  <si>
+    <t>열이올라요 (Heart Burn)</t>
+  </si>
+  <si>
+    <t>연애편지</t>
+  </si>
+  <si>
+    <t>취중고백</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>사랑역</t>
+  </si>
+  <si>
+    <t>ELEVEN</t>
+  </si>
+  <si>
     <t>Clink Clink (클링 클링)</t>
   </si>
   <si>
-    <t>손이 참 곱던 그대</t>
-  </si>
-  <si>
-    <t>LOVE me</t>
-  </si>
-  <si>
-    <t>A bientot</t>
-  </si>
-  <si>
-    <t>내가 아니라도</t>
-  </si>
-  <si>
-    <t>도깨비불 (Illusion)</t>
-  </si>
-  <si>
-    <t>사랑해 진짜</t>
-  </si>
-  <si>
-    <t>FEARLESS</t>
-  </si>
-  <si>
-    <t>봄여름가을겨울 (Still Life)</t>
-  </si>
-  <si>
-    <t>인생찬가</t>
-  </si>
-  <si>
-    <t>연애편지</t>
-  </si>
-  <si>
-    <t>사랑역</t>
-  </si>
-  <si>
     <t>보금자리</t>
   </si>
   <si>
-    <t>열이올라요 (Heart Burn)</t>
-  </si>
-  <si>
     <t>사랑해요 그대를</t>
   </si>
   <si>
-    <t>취중고백</t>
-  </si>
-  <si>
-    <t>Hype boy</t>
-  </si>
-  <si>
-    <t>ELEVEN</t>
+    <t>다정히 내 이름을 부르면</t>
+  </si>
+  <si>
+    <t>눈을 감으면</t>
   </si>
   <si>
     <t>I LOVE U</t>
   </si>
   <si>
+    <t>Feel My Rhythm</t>
+  </si>
+  <si>
+    <t>해요 (2022)</t>
+  </si>
+  <si>
     <t>바보에게 바보가 (웹툰 '연애의 발견' X 이석훈)</t>
   </si>
   <si>
-    <t>Feel My Rhythm</t>
+    <t>Left and Right (Feat. Jung Kook of BTS)</t>
   </si>
   <si>
     <t>신호등</t>
   </si>
   <si>
+    <t>That's Hilarious</t>
+  </si>
+  <si>
     <t>Yet To Come</t>
   </si>
   <si>
-    <t>다정히 내 이름을 부르면</t>
-  </si>
-  <si>
-    <t>Left and Right (Feat. Jung Kook of BTS)</t>
+    <t>아무래도 난</t>
+  </si>
+  <si>
+    <t>Dynamite</t>
+  </si>
+  <si>
+    <t>너의 모든 순간</t>
+  </si>
+  <si>
+    <t>STAY</t>
+  </si>
+  <si>
+    <t>MY BAG</t>
+  </si>
+  <si>
+    <t>듣고 싶을까</t>
+  </si>
+  <si>
+    <t>새벽에 걸려온 너의 전화는</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
+  </si>
+  <si>
+    <t>INVU</t>
   </si>
   <si>
     <t>_WORLD</t>
   </si>
   <si>
-    <t>HOT</t>
-  </si>
-  <si>
-    <t>아무래도 난</t>
-  </si>
-  <si>
-    <t>Dynamite</t>
-  </si>
-  <si>
-    <t>That's Hilarious</t>
-  </si>
-  <si>
-    <t>STAY</t>
-  </si>
-  <si>
-    <t>해요 (2022)</t>
-  </si>
-  <si>
-    <t>MY BAG</t>
+    <t>I Ain't Worried</t>
+  </si>
+  <si>
+    <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
   </si>
   <si>
     <t>GANADARA (Feat. 아이유)</t>
   </si>
   <si>
-    <t>늦은 밤 헤어지긴 너무 아쉬워</t>
+    <t>BEAUTIFUL MONSTER</t>
   </si>
   <si>
     <t>Butter</t>
   </si>
   <si>
+    <t>사랑이야</t>
+  </si>
+  <si>
     <t>Next Level</t>
   </si>
   <si>
-    <t>너의 모든 순간</t>
-  </si>
-  <si>
-    <t>INVU</t>
-  </si>
-  <si>
-    <t>듣고 싶을까</t>
-  </si>
-  <si>
-    <t>사랑이야</t>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>팡파레</t>
   </si>
   <si>
     <t>Sparkling</t>
@@ -220,12 +247,6 @@
     <t>Permission to Dance</t>
   </si>
   <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>팡파레</t>
-  </si>
-  <si>
     <t>너를 생각해</t>
   </si>
   <si>
@@ -235,175 +256,169 @@
     <t>SMILEY (Feat. BIBI)</t>
   </si>
   <si>
-    <t>I Ain't Worried</t>
+    <t>바라만 본다</t>
+  </si>
+  <si>
+    <t>밤하늘의 별을(2020)</t>
+  </si>
+  <si>
+    <t>Bad Decisions</t>
+  </si>
+  <si>
+    <t>봄날</t>
+  </si>
+  <si>
+    <t>드라마</t>
+  </si>
+  <si>
+    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
+  </si>
+  <si>
+    <t>언제나 사랑해</t>
+  </si>
+  <si>
+    <t>OHAYO MY NIGHT</t>
+  </si>
+  <si>
+    <t>내 손을 잡아</t>
+  </si>
+  <si>
+    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+  </si>
+  <si>
+    <t>미친 것처럼</t>
+  </si>
+  <si>
+    <t>My Universe</t>
+  </si>
+  <si>
+    <t>strawberry moon</t>
+  </si>
+  <si>
+    <t>Off My Face</t>
+  </si>
+  <si>
+    <t>With you</t>
+  </si>
+  <si>
+    <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
+  </si>
+  <si>
+    <t>그 하루(feat.반하나)</t>
+  </si>
+  <si>
+    <t>주마등</t>
   </si>
   <si>
     <t>Somebody!</t>
   </si>
   <si>
-    <t>BEAUTIFUL MONSTER</t>
-  </si>
-  <si>
-    <t>회전목마 (Feat. Zion.T, 원슈타인) (Prod. Slom)</t>
-  </si>
-  <si>
-    <t>새벽에 걸려온 너의 전화는</t>
-  </si>
-  <si>
-    <t>드라마</t>
-  </si>
-  <si>
-    <t>봄날</t>
-  </si>
-  <si>
-    <t>바라만 본다</t>
-  </si>
-  <si>
-    <t>Cookie</t>
-  </si>
-  <si>
-    <t>언제나 사랑해</t>
-  </si>
-  <si>
-    <t>Darl+ing</t>
-  </si>
-  <si>
-    <t>내 손을 잡아</t>
-  </si>
-  <si>
-    <t>My Universe</t>
-  </si>
-  <si>
-    <t>밤하늘의 별을(2020)</t>
-  </si>
-  <si>
-    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
-  </si>
-  <si>
-    <t>OHAYO MY NIGHT</t>
-  </si>
-  <si>
-    <t>리무진 (Feat. MINO) (Prod. GRAY)</t>
-  </si>
-  <si>
-    <t>With you</t>
-  </si>
-  <si>
-    <t>ZOOM</t>
-  </si>
-  <si>
-    <t>미친 것처럼</t>
-  </si>
-  <si>
-    <t>strawberry moon</t>
-  </si>
-  <si>
-    <t>Off My Face</t>
-  </si>
-  <si>
-    <t>주마등</t>
+    <t>Celebrity</t>
+  </si>
+  <si>
+    <t>사랑한다고 말해줘</t>
+  </si>
+  <si>
+    <t>빛이 나는 사람</t>
+  </si>
+  <si>
+    <t>약속 [約束]</t>
   </si>
   <si>
     <t>롤린 (Rollin')</t>
   </si>
   <si>
-    <t>그 하루(feat.반하나)</t>
-  </si>
-  <si>
-    <t>Celebrity</t>
-  </si>
-  <si>
-    <t>라일락</t>
-  </si>
-  <si>
-    <t>약속 [約束]</t>
-  </si>
-  <si>
-    <t>빛이 나는 사람</t>
-  </si>
-  <si>
-    <t>Savage</t>
-  </si>
-  <si>
-    <t>스물다섯, 스물하나</t>
-  </si>
-  <si>
-    <t>CHEERS</t>
+    <t>망해 간다니까</t>
   </si>
   <si>
     <t>WSG워너비 (가야G)</t>
   </si>
   <si>
+    <t>NewJeans</t>
+  </si>
+  <si>
     <t>WSG워너비 (4FIRE)</t>
   </si>
   <si>
     <t>IVE (아이브)</t>
   </si>
   <si>
+    <t>ITZY (있지)</t>
+  </si>
+  <si>
     <t>나연 (TWICE)</t>
   </si>
   <si>
+    <t>임영웅</t>
+  </si>
+  <si>
+    <t>(여자)아이들</t>
+  </si>
+  <si>
     <t>싸이 (PSY)</t>
   </si>
   <si>
-    <t>임영웅</t>
-  </si>
-  <si>
-    <t>(여자)아이들</t>
-  </si>
-  <si>
-    <t>ITZY (있지)</t>
-  </si>
-  <si>
     <t>BIG Naughty (서동현)</t>
   </si>
   <si>
+    <t>10CM</t>
+  </si>
+  <si>
+    <t>경서</t>
+  </si>
+  <si>
+    <t>멜로망스</t>
+  </si>
+  <si>
     <t>aespa</t>
   </si>
   <si>
-    <t>경서</t>
-  </si>
-  <si>
-    <t>멜로망스</t>
-  </si>
-  <si>
-    <t>10CM</t>
-  </si>
-  <si>
-    <t>NewJeans</t>
+    <t>소녀시대 (GIRLS' GENERATION)</t>
   </si>
   <si>
     <t>볼빨간사춘기</t>
   </si>
   <si>
+    <t>주호</t>
+  </si>
+  <si>
+    <t>LE SSERAFIM (르세라핌)</t>
+  </si>
+  <si>
+    <t>BE'O (비오)</t>
+  </si>
+  <si>
+    <t>BIGBANG (빅뱅)</t>
+  </si>
+  <si>
+    <t>선미</t>
+  </si>
+  <si>
+    <t>김민석 (멜로망스)</t>
+  </si>
+  <si>
     <t>WSG워너비 (오아시소)</t>
   </si>
   <si>
-    <t>BE'O (비오)</t>
-  </si>
-  <si>
-    <t>주호</t>
-  </si>
-  <si>
-    <t>LE SSERAFIM (르세라핌)</t>
-  </si>
-  <si>
-    <t>BIGBANG (빅뱅)</t>
-  </si>
-  <si>
-    <t>선미</t>
-  </si>
-  <si>
-    <t>김민석 (멜로망스)</t>
+    <t>경서예지</t>
+  </si>
+  <si>
+    <t>WSG워너비</t>
   </si>
   <si>
     <t>WINNER</t>
   </si>
   <si>
+    <t>Red Velvet (레드벨벳)</t>
+  </si>
+  <si>
+    <t>#안녕</t>
+  </si>
+  <si>
     <t>이석훈</t>
   </si>
   <si>
-    <t>Red Velvet (레드벨벳)</t>
+    <t>Charlie Puth</t>
   </si>
   <si>
     <t>이무진</t>
@@ -412,97 +427,94 @@
     <t>방탄소년단</t>
   </si>
   <si>
-    <t>경서예지</t>
-  </si>
-  <si>
-    <t>Charlie Puth</t>
+    <t>주시크 (Joosiq)</t>
+  </si>
+  <si>
+    <t>성시경</t>
+  </si>
+  <si>
+    <t>The Kid LAROI</t>
+  </si>
+  <si>
+    <t>MSG워너비(M.O.M)</t>
+  </si>
+  <si>
+    <t>한동근</t>
   </si>
   <si>
     <t>세븐틴</t>
   </si>
   <si>
-    <t>주시크 (Joosiq)</t>
-  </si>
-  <si>
-    <t>The Kid LAROI</t>
-  </si>
-  <si>
-    <t>#안녕</t>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>김승민</t>
   </si>
   <si>
     <t>박재범</t>
   </si>
   <si>
-    <t>케이시 (Kassy)</t>
-  </si>
-  <si>
-    <t>성시경</t>
-  </si>
-  <si>
-    <t>태연 (TAEYEON)</t>
-  </si>
-  <si>
-    <t>MSG워너비(M.O.M)</t>
+    <t>STAYC(스테이씨)</t>
+  </si>
+  <si>
+    <t>다비치</t>
   </si>
   <si>
     <t>청하</t>
   </si>
   <si>
-    <t>다비치</t>
-  </si>
-  <si>
     <t>임재현</t>
   </si>
   <si>
     <t>YENA (최예나)</t>
   </si>
   <si>
-    <t>OneRepublic</t>
+    <t>benny blanco</t>
+  </si>
+  <si>
+    <t>아이유</t>
+  </si>
+  <si>
+    <t>sokodomo</t>
+  </si>
+  <si>
+    <t>디핵 (D-Hack)</t>
+  </si>
+  <si>
+    <t>폴킴</t>
+  </si>
+  <si>
+    <t>V.O.S</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>지민</t>
+  </si>
+  <si>
+    <t>김호중</t>
   </si>
   <si>
     <t>로꼬</t>
   </si>
   <si>
-    <t>STAYC(스테이씨)</t>
-  </si>
-  <si>
-    <t>sokodomo</t>
-  </si>
-  <si>
-    <t>한동근</t>
-  </si>
-  <si>
-    <t>아이유</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
-    <t>폴킴</t>
-  </si>
-  <si>
-    <t>디핵 (D-Hack)</t>
-  </si>
-  <si>
-    <t>지민</t>
-  </si>
-  <si>
-    <t>제시 (Jessi)</t>
-  </si>
-  <si>
-    <t>V.O.S</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>김호중</t>
+    <t>탑현</t>
   </si>
   <si>
     <t>브레이브걸스</t>
   </si>
   <si>
-    <t>자우림</t>
+    <t>오반</t>
   </si>
 </sst>
 </file>
@@ -961,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -975,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -989,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1003,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1017,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1031,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1045,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1059,7 +1071,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1073,7 +1085,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1115,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1143,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1157,7 +1169,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1171,7 +1183,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1185,7 +1197,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1199,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1213,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1227,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1241,7 +1253,7 @@
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1255,7 +1267,7 @@
         <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1269,7 +1281,7 @@
         <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1297,7 +1309,7 @@
         <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1311,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1325,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1339,7 +1351,7 @@
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1353,7 +1365,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1367,7 +1379,7 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1381,7 +1393,7 @@
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1395,7 +1407,7 @@
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1409,7 +1421,7 @@
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1423,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1437,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1451,7 +1463,7 @@
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1465,7 +1477,7 @@
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1479,7 +1491,7 @@
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1493,7 +1505,7 @@
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1507,7 +1519,7 @@
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1521,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1563,7 +1575,7 @@
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1577,7 +1589,7 @@
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1591,7 +1603,7 @@
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1605,7 +1617,7 @@
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1619,7 +1631,7 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1633,7 +1645,7 @@
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1647,7 +1659,7 @@
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1661,7 +1673,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1675,7 +1687,7 @@
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1689,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1703,7 +1715,7 @@
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1717,7 +1729,7 @@
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1731,7 +1743,7 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1745,7 +1757,7 @@
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1759,7 +1771,7 @@
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1773,7 +1785,7 @@
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1787,7 +1799,7 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1801,7 +1813,7 @@
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1815,7 +1827,7 @@
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1829,7 +1841,7 @@
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1843,7 +1855,7 @@
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1857,7 +1869,7 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1871,7 +1883,7 @@
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1885,7 +1897,7 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1899,7 +1911,7 @@
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1913,7 +1925,7 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1927,7 +1939,7 @@
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1941,7 +1953,7 @@
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1955,7 +1967,7 @@
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1969,7 +1981,7 @@
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1983,7 +1995,7 @@
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1997,7 +2009,7 @@
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2011,7 +2023,7 @@
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2025,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2039,7 +2051,7 @@
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2053,7 +2065,7 @@
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2067,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2081,7 +2093,7 @@
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2095,7 +2107,7 @@
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2109,7 +2121,7 @@
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2123,7 +2135,7 @@
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2137,7 +2149,7 @@
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2151,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2165,7 +2177,7 @@
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2179,7 +2191,7 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2193,7 +2205,7 @@
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2207,7 +2219,7 @@
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2221,7 +2233,7 @@
         <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2235,7 +2247,7 @@
         <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2249,7 +2261,7 @@
         <v>102</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2263,7 +2275,7 @@
         <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2277,7 +2289,7 @@
         <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
